--- a/Utah_Jazz_2025-26_stats.xlsx
+++ b/Utah_Jazz_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,163 +1795,658 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Taylor Hendricks</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Kyle Anderson</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Keyonte George</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cody Williams</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Isaiah Collier</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Svi Mykhailiuk</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Walter Clayton Jr.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Elijah Harkless</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Kyle Filipowski</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Walker Kessler</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Jusuf Nurkić</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Love</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>27.6</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22.6</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.4</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9.300000000000001</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7.555555555555555</v>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7.5</v>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.9</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jusuf Nurkić</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.8</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ace Bailey</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Walter Clayton Jr.</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Taylor Hendricks</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.444444444444445</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Kevin Love</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Cody Williams</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Elijah Harkless</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.6</v>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1956,6 +2455,682 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Taylor Hendricks</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Kyle Anderson</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Keyonte George</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cody Williams</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Isaiah Collier</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Svi Mykhailiuk</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Walter Clayton Jr.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Elijah Harkless</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Kyle Filipowski</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Walker Kessler</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Jusuf Nurkić</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Love</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1977,13 +3152,194 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Keyonte George</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Walker Kessler</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Svi Mykhailiuk</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.555555555555555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Isaiah Collier</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kyle Anderson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kyle Filipowski</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jusuf Nurkić</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Walter Clayton Jr.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Taylor Hendricks</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kevin Love</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cody Williams</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Elijah Harkless</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Keyonte George</t>
         </is>
       </c>
@@ -2129,6 +3485,368 @@
       </c>
       <c r="B16" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Walker Kessler</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jusuf Nurkić</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kyle Filipowski</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Taylor Hendricks</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.222222222222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Keyonte George</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kevin Love</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Svi Mykhailiuk</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Walter Clayton Jr.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kyle Anderson</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Isaiah Collier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Elijah Harkless</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cody Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Svi Mykhailiuk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Keyonte George</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Walker Kessler</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Walter Clayton Jr.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kyle Filipowski</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kevin Love</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Isaiah Collier</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Taylor Hendricks</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cody Williams</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Elijah Harkless</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jusuf Nurkić</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kyle Anderson</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Utah_Jazz_2025-26_stats.xlsx
+++ b/Utah_Jazz_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,6 +1096,120 @@
       </c>
       <c r="Q11" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>16</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>40</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1771,6 +1886,120 @@
       </c>
       <c r="Q11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2446,6 +2675,120 @@
         <v>10</v>
       </c>
       <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2460,7 +2803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,6 +3466,120 @@
       </c>
       <c r="Q11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.6</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="3">
@@ -3173,7 +3630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.6</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="4">
@@ -3189,51 +3646,51 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.555555555555555</v>
+        <v>9.416666666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.5</v>
+        <v>8.454545454545455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Ace Bailey</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.9</v>
+        <v>7.545454545454546</v>
       </c>
     </row>
     <row r="10">
@@ -3243,17 +3700,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.8</v>
+        <v>7.416666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ace Bailey</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -3263,7 +3720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>6.181818181818182</v>
       </c>
     </row>
     <row r="13">
@@ -3283,7 +3740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3293,7 +3750,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3303,7 +3760,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.6</v>
+        <v>2.166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3344,7 +3801,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.1</v>
+        <v>7.083333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -3354,33 +3811,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Walter Clayton Jr.</t>
+          <t>Jusuf Nurkić</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Walter Clayton Jr.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>3.181818181818182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3390,7 +3847,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jusuf Nurkić</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3404,7 +3861,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.4</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -3414,7 +3871,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.3</v>
+        <v>2.416666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -3424,7 +3881,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.1</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -3434,7 +3891,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3444,7 +3901,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.6</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="13">
@@ -3454,7 +3911,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
     </row>
     <row r="14">
@@ -3464,27 +3921,27 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cody Williams</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3992,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.9</v>
+        <v>9.166666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -3545,7 +4002,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.3</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3555,7 +4012,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.8</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -3575,77 +4032,77 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.8</v>
+        <v>4.083333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Ace Bailey</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.8</v>
+        <v>3.727272727272727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ace Bailey</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.7</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walter Clayton Jr.</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.333333333333333</v>
+        <v>2.454545454545455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Walter Clayton Jr.</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.222222222222222</v>
+        <v>2.363636363636364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -3655,7 +4112,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3665,7 +4122,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +4163,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.2</v>
+        <v>3.583333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -3716,7 +4173,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3726,87 +4183,87 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.7</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.2</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.111111111111111</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Walter Clayton Jr.</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Walter Clayton Jr.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Ace Bailey</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cody Williams</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="13">
@@ -3816,27 +4273,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ace Bailey</t>
+          <t>Jusuf Nurkić</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jusuf Nurkić</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16">
@@ -3847,6 +4304,304 @@
       </c>
       <c r="B16" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>129</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108</v>
+      </c>
+      <c r="E2" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>134</v>
+      </c>
+      <c r="E4" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>134</v>
+      </c>
+      <c r="D5" t="n">
+        <v>136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>118</v>
+      </c>
+      <c r="E6" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>103</v>
+      </c>
+      <c r="D7" t="n">
+        <v>126</v>
+      </c>
+      <c r="E7" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>103</v>
+      </c>
+      <c r="E8" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>103</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114</v>
+      </c>
+      <c r="E9" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>137</v>
+      </c>
+      <c r="E10" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120</v>
+      </c>
+      <c r="E11" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>152</v>
+      </c>
+      <c r="D12" t="n">
+        <v>128</v>
+      </c>
+      <c r="E12" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>122</v>
+      </c>
+      <c r="D13" t="n">
+        <v>132</v>
+      </c>
+      <c r="E13" t="n">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
